--- a/说明.xlsx
+++ b/说明.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995"/>
@@ -3517,6 +3517,65 @@
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BufferGeometry</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Buffer + Geometry</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -3571,6 +3630,85 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>几何体</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14578853" y="1199029"/>
+          <a:ext cx="2353235" cy="2498912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Float32Array </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>UintBufferArray</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3868,8 +4006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/说明.xlsx
+++ b/说明.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995"/>
@@ -3639,14 +3639,14 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>526676</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3655,7 +3655,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14578853" y="1199029"/>
+          <a:off x="14578853" y="3462617"/>
           <a:ext cx="2353235" cy="2498912"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3712,6 +3712,320 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14388353" y="470647"/>
+          <a:ext cx="3731559" cy="2061882"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>buffer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>就是将顶点位置数组和顶点颜色数组放到缓冲区中，减少</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>GPU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的计算时间</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>这些数据存储在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BufferGeometry.attributes={}</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>每一项都是一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BufferAttribute</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>实例</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>21517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>638736</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="右箭头 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11721353" y="1030046"/>
+          <a:ext cx="2588559" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="矩形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19330147" y="672353"/>
+          <a:ext cx="3697941" cy="1759323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>BufferAttribute</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接箭头连接符 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17772529" y="874059"/>
+          <a:ext cx="1501589" cy="313765"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4006,8 +4320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
